--- a/uploads/cost_price_example.xlsx
+++ b/uploads/cost_price_example.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>barcode</t>
+    <t>product_id</t>
   </si>
   <si>
     <t>cost_price</t>
   </si>
   <si>
-    <t>4607034370237</t>
+    <t>SKU123456</t>
   </si>
   <si>
     <t>4607034370244</t>
   </si>
   <si>
-    <t>4607034370251</t>
-  </si>
-  <si>
-    <t>4607034370268</t>
-  </si>
-  <si>
-    <t>4607034370275</t>
+    <t>OZON789012</t>
+  </si>
+  <si>
+    <t>9999999999999</t>
+  </si>
+  <si>
+    <t>UNKNOWN_SKU</t>
   </si>
 </sst>
 </file>
